--- a/Datasets/emi_wt_seq_alignment.xlsx
+++ b/Datasets/emi_wt_seq_alignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makow\Documents\GitHub\UniRep\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BAFC60E-2FF5-46EB-95D2-2A8D635CF810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377ADA91-608F-4603-81E6-4B5AD9D1AE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFBD9DA5-34F5-49E6-8B1C-6B55E5BDAB69}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338C997D-51C5-4F02-8B0D-708F92FD50DE}">
   <dimension ref="A1:DN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="CS9" sqref="CS9"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:DN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,51 +919,51 @@
         <v>102</v>
       </c>
       <c r="DC1" s="1">
-        <f>DB1+1</f>
+        <f t="shared" ref="DC1:DN1" si="3">DB1+1</f>
         <v>103</v>
       </c>
       <c r="DD1">
-        <f>DC1+1</f>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="DE1">
-        <f>DD1+1</f>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="DF1">
-        <f>DE1+1</f>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="DG1">
-        <f>DF1+1</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="DH1">
-        <f>DG1+1</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="DI1">
-        <f>DH1+1</f>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="DJ1">
-        <f>DI1+1</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="DK1">
-        <f>DJ1+1</f>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="DL1">
-        <f>DK1+1</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="DM1">
-        <f>DL1+1</f>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="DN1">
-        <f>DM1+1</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
     </row>
@@ -1490,13 +1490,13 @@
         <v>18</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG3" s="4" t="s">
         <v>11</v>
@@ -1622,13 +1622,13 @@
         <v>17</v>
       </c>
       <c r="CV3" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CW3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="CX3" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="CY3" s="4" t="s">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="DC3" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="DD3" s="4" t="s">
         <v>16</v>
